--- a/pred_ohlcv/54_21/2019-10-14 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 ZRX ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-36158.9089</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-36009.6397</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>78796.84417878788</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>108000.8270218078</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>107257.4217218078</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>107257.4217218078</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>117244.4141218078</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>124655.0343218078</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>109984.7864218078</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>121486.3110218078</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>134730.3589218078</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>136419.378768005</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>136264.427668005</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>138434.485768005</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>138434.485768005</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>162478.0402268285</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>181821.6871268285</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>188786.846068005</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>210428.663468005</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>210622.006768005</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>189326.563368005</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>205877.086768005</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>195498.335868005</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>202498.563968005</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>188226.874668005</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>199223.282168005</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>145286.7667870786</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>145286.7667870786</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>143704.0481870786</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>143704.0481870786</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>129213.3791018999</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>155271.5747001986</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>217818.1943655166</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>211010.1644655166</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>272418.0813819055</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>272418.0813819055</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>278427.9779819055</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>275828.2856819055</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>274952.3694819055</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>274952.3694819055</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>275121.2870819055</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>697168.3155237148</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>738307.4467237148</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>752252.0765237148</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>743017.6366237148</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>732317.5595237148</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>747051.1633237149</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>767947.9303237149</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>797598.9060237148</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>701003.1161237148</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-14 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 ZRX ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-36158.9089</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-36009.6397</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-35012.1397</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-35731.2948</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-37496.6117</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-36554.8353</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>78796.84417878788</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>108000.8270218078</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>107257.4217218078</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>107257.4217218078</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>117244.4141218078</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>124655.0343218078</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>109984.7864218078</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>121486.3110218078</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>134730.3589218078</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>136419.378768005</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>136264.427668005</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>138434.485768005</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>138434.485768005</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>162478.0402268285</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>181821.6871268285</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>188786.846068005</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>210428.663468005</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>210622.006768005</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>189326.563368005</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>205877.086768005</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>195498.335868005</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>202498.563968005</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>188226.874668005</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>199223.282168005</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>145286.7667870786</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>145286.7667870786</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>143704.0481870786</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>143704.0481870786</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>129213.3791018999</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>155271.5747001986</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>217818.1943655166</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>211010.1644655166</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>272418.0813819055</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>272418.0813819055</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>278427.9779819055</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>275828.2856819055</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>274952.3694819055</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>274952.3694819055</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>275121.2870819055</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>656988.6376069703</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>662063.3346069703</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>589570.3078069703</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>678692.4371964422</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>602458.7517237148</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>602458.7517237148</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>697168.3155237148</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>697168.3155237148</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>702497.5674237148</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>764322.7703237148</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>738307.4467237148</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>752252.0765237148</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>779162.4845237149</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>743017.6366237148</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>732317.5595237148</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>747051.1633237149</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>767947.9303237149</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>797598.9060237148</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>701003.1161237148</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
